--- a/ft-3-add-narative/ig/StructureDefinition-cds-bundle-transaction-creation.xlsx
+++ b/ft-3-add-narative/ig/StructureDefinition-cds-bundle-transaction-creation.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-23T14:58:32+00:00</t>
+    <t>2024-05-23T14:59:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ft-3-add-narative/ig/StructureDefinition-cds-bundle-transaction-creation.xlsx
+++ b/ft-3-add-narative/ig/StructureDefinition-cds-bundle-transaction-creation.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-23T14:59:17+00:00</t>
+    <t>2024-05-23T14:59:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
